--- a/db/documents/DBmap.xlsx
+++ b/db/documents/DBmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\indei\flowcore\db\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C8A271-A37B-42A9-8385-23DD19047B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0B246-15D7-4F4C-97FD-23CCF93FC77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="5430" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{779DCB98-936F-4D4C-8180-C441B90F8D2D}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>受注データ</t>
   </si>
@@ -264,13 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受注時刻</t>
-    <rPh sb="0" eb="4">
-      <t>ジュチュウジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -313,23 +306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見積フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案件終了フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>アンケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>注文No</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
@@ -467,13 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未読フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ミドク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -481,6 +450,123 @@
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約開始フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約終了フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積中フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注先未読フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分納フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ブンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除時刻</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積内容</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求先未読フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミドク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望納期</t>
+    <rPh sb="0" eb="4">
+      <t>キボウノウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答納期</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウノウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1235,10 +1321,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3" x14ac:dyDescent="0.35"/>
@@ -1248,12 +1334,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>"`"&amp;C2&amp;"` INT NOT NULL AUTO_INCREMENT, "</f>
@@ -1262,7 +1348,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>"`"&amp;C3&amp;"` INT NULL ,"</f>
@@ -1271,7 +1357,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" ref="D4" si="0">"`"&amp;C4&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
@@ -1292,7 +1378,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" ref="D6:D15" si="1">"`"&amp;C6&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
+        <f t="shared" ref="D6:D18" si="1">"`"&amp;C6&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
         <v>`製造Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
@@ -1307,7 +1393,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>"`"&amp;C8&amp;"` INT NULL ,"</f>
@@ -1316,7 +1402,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1325,7 +1411,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1334,242 +1420,314 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>`受領内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <v>`見積内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>`品名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <v>`受領内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>`型式1` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <v>`品名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>`型式2` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <v>`型式1` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>`注文者名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <v>`型式2` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>"`"&amp;C16&amp;"` INT NULL ,"</f>
-        <v>`見積数量` INT NULL ,</v>
+        <f t="shared" si="1"/>
+        <v>`注文者名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>"`"&amp;C17&amp;"` INT NULL ,"</f>
-        <v>`見積単価` INT NULL ,</v>
+        <f>"`"&amp;C17&amp;"` DATE NULL ,"</f>
+        <v>`希望納期` DATE NULL ,</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>"`"&amp;C18&amp;"` INT NULL ,"</f>
-        <v>`注文数量` INT NULL ,</v>
+        <f>"`"&amp;C18&amp;"` DATE NULL ,"</f>
+        <v>`回答納期` DATE NULL ,</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>"`"&amp;C19&amp;"` INT NULL ,"</f>
-        <v>`注文単価` INT NULL ,</v>
+        <v>`見積数量` INT NULL ,</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>"`"&amp;C20&amp;"` INT NULL ,"</f>
-        <v>`割引単価` INT NULL ,</v>
+        <v>`見積単価` INT NULL ,</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>"`"&amp;C21&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
-        <v>`赤伝フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+        <f>"`"&amp;C21&amp;"` INT NULL ,"</f>
+        <v>`注文数量` INT NULL ,</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" ref="D22:D23" si="3">"`"&amp;C22&amp;"` DATETIME NULL ,"</f>
-        <v>`受注時刻` DATETIME NULL ,</v>
+        <f>"`"&amp;C22&amp;"` INT NULL ,"</f>
+        <v>`注文単価` INT NULL ,</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>`出荷時刻` DATETIME NULL ,</v>
+        <f>"`"&amp;C23&amp;"` INT NULL ,"</f>
+        <v>`割引単価` INT NULL ,</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" ref="D24:D25" si="4">"`"&amp;C24&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
-        <v>`見積コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <f>"`"&amp;C24&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`分納フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>`注文コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <f>"`"&amp;C25&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`赤伝フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" ref="D26" si="5">"`"&amp;C26&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
-        <v>`引当コード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <f t="shared" ref="D26" si="3">"`"&amp;C26&amp;"` DATETIME NULL ,"</f>
+        <v>`見積時刻` DATETIME NULL ,</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>"`"&amp;C27&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
-        <v>`見積フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+        <f t="shared" ref="D27:D29" si="4">"`"&amp;C27&amp;"` DATETIME NULL ,"</f>
+        <v>`契約時刻` DATETIME NULL ,</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>"`"&amp;C28&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
-        <v>`見積回答フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+        <f t="shared" si="4"/>
+        <v>`出荷時刻` DATETIME NULL ,</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>"`"&amp;C29&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
-        <v>`未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+        <f t="shared" si="4"/>
+        <v>`削除時刻` DATETIME NULL ,</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>"`"&amp;C30&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
-        <v>`案件終了フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+        <f t="shared" ref="D30:D31" si="5">"`"&amp;C30&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
+        <v>`見積コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>"`"&amp;C31&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
-        <v>`削除フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+        <f t="shared" si="5"/>
+        <v>`注文コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>"`"&amp;C32&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
-        <v>`履歴` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+        <f t="shared" ref="D32" si="6">"`"&amp;C32&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
+        <v>`引当コード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>"`"&amp;C33&amp;"` DATETIME NULL ,"</f>
-        <v>`create_at` DATETIME NULL ,</v>
+        <f>"`"&amp;C33&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`請求先未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f>"`"&amp;C34&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`受注先未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f>"`"&amp;C35&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`見積中フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f>"`"&amp;C36&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`見積回答フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" ref="D37:D38" si="7">"`"&amp;C37&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`契約開始フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>`契約終了フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f>"`"&amp;C39&amp;"` TINYINT(1) NOT NULL DEFAULT '0' ,"</f>
+        <v>`削除フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f>"`"&amp;C40&amp;"` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,"</f>
+        <v>`履歴` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f>"`"&amp;C41&amp;"` DATETIME NULL ,"</f>
+        <v>`create_at` DATETIME NULL ,</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="3" t="str">
-        <f>"`"&amp;C34&amp;"` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,"</f>
+      <c r="D42" s="3" t="str">
+        <f>"`"&amp;C42&amp;"` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,"</f>
         <v>`update_at` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G39" s="3" t="str">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="3" t="str">
         <f>"CREATE TABLE `flowcore`.`"&amp;A1&amp;"` ("</f>
         <v>CREATE TABLE `flowcore`.`注文データ` (</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G40" s="3" t="str">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="3" t="str">
         <f>"PRIMARY KEY (`"&amp;C2&amp;"`)) ENGINE = InnoDB;"</f>
         <v>PRIMARY KEY (`注文No`)) ENGINE = InnoDB;</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G42" s="3" t="str">
-        <f>_xlfn.CONCAT(D2:D34)</f>
-        <v>`注文No` INT NOT NULL AUTO_INCREMENT, `見積No` INT NULL ,`見積Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`製造No` INT NULL ,`製造Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受注ステータス` VARCHAR(10) CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`ユーザーID` INT NULL ,`ユーザー名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`件名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受領内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`品名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式1` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式2` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文者名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`見積数量` INT NULL ,`見積単価` INT NULL ,`注文数量` INT NULL ,`注文単価` INT NULL ,`割引単価` INT NULL ,`赤伝フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`受注時刻` DATETIME NULL ,`出荷時刻` DATETIME NULL ,`見積コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`引当コード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`見積フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積回答フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`案件終了フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`削除フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`履歴` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`create_at` DATETIME NULL ,`update_at` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="G43" s="3" t="str">
-        <f>G39&amp;G42&amp;G40</f>
-        <v>CREATE TABLE `flowcore`.`注文データ` (`注文No` INT NOT NULL AUTO_INCREMENT, `見積No` INT NULL ,`見積Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`製造No` INT NULL ,`製造Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受注ステータス` VARCHAR(10) CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`ユーザーID` INT NULL ,`ユーザー名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`件名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受領内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`品名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式1` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式2` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文者名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`見積数量` INT NULL ,`見積単価` INT NULL ,`注文数量` INT NULL ,`注文単価` INT NULL ,`割引単価` INT NULL ,`赤伝フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`受注時刻` DATETIME NULL ,`出荷時刻` DATETIME NULL ,`見積コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`引当コード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`見積フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積回答フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`案件終了フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`削除フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`履歴` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`create_at` DATETIME NULL ,`update_at` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,PRIMARY KEY (`注文No`)) ENGINE = InnoDB;</v>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="3" t="str">
+        <f>_xlfn.CONCAT(D2:D42)</f>
+        <v>`注文No` INT NOT NULL AUTO_INCREMENT, `見積No` INT NULL ,`見積Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`製造No` INT NULL ,`製造Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受注ステータス` VARCHAR(10) CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`ユーザーID` INT NULL ,`ユーザー名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`件名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`見積内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受領内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`品名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式1` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式2` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文者名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`希望納期` DATE NULL ,`回答納期` DATE NULL ,`見積数量` INT NULL ,`見積単価` INT NULL ,`注文数量` INT NULL ,`注文単価` INT NULL ,`割引単価` INT NULL ,`分納フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`赤伝フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積時刻` DATETIME NULL ,`契約時刻` DATETIME NULL ,`出荷時刻` DATETIME NULL ,`削除時刻` DATETIME NULL ,`見積コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`引当コード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`請求先未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`受注先未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積中フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積回答フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`契約開始フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`契約終了フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`削除フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`履歴` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`create_at` DATETIME NULL ,`update_at` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="3" t="str">
+        <f>G47&amp;G50&amp;G48</f>
+        <v>CREATE TABLE `flowcore`.`注文データ` (`注文No` INT NOT NULL AUTO_INCREMENT, `見積No` INT NULL ,`見積Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`製造No` INT NULL ,`製造Noコード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受注ステータス` VARCHAR(10) CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`ユーザーID` INT NULL ,`ユーザー名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`件名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`見積内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`受領内容` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`品名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式1` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`型式2` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文者名` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`希望納期` DATE NULL ,`回答納期` DATE NULL ,`見積数量` INT NULL ,`見積単価` INT NULL ,`注文数量` INT NULL ,`注文単価` INT NULL ,`割引単価` INT NULL ,`分納フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`赤伝フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積時刻` DATETIME NULL ,`契約時刻` DATETIME NULL ,`出荷時刻` DATETIME NULL ,`削除時刻` DATETIME NULL ,`見積コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`注文コメント` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`引当コード` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`請求先未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`受注先未読フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積中フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`見積回答フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`契約開始フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`契約終了フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`削除フラグ` TINYINT(1) NOT NULL DEFAULT '0' ,`履歴` TEXT CHARACTER SET utf8 COLLATE utf8_general_ci NULL ,`create_at` DATETIME NULL ,`update_at` TIMESTAMP on update CURRENT_TIMESTAMP NOT NULL DEFAULT CURRENT_TIMESTAMP ,PRIMARY KEY (`注文No`)) ENGINE = InnoDB;</v>
       </c>
     </row>
   </sheetData>
